--- a/biology/Zoologie/Gymnodoris_subflava/Gymnodoris_subflava.xlsx
+++ b/biology/Zoologie/Gymnodoris_subflava/Gymnodoris_subflava.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnodoris subflava est un nudibranche de la famille des Gymnodorididés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnodoris subflava est un nudibranche de petite taille pouvant atteindre 25 mm de long.
 Son corps est étiré et entièrement jaune vif laissant apparaitre au travers de ses flancs la masse sombre de ses viscères surtout au niveau du panache branchial.
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnodoris subflava se rencontre dans la région centrale du bassin Indo-Pacifique, soit du sud du Japon, à la partie orientale de l'archipel indonésien en passant par les Philippines[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnodoris subflava se rencontre dans la région centrale du bassin Indo-Pacifique, soit du sud du Japon, à la partie orientale de l'archipel indonésien en passant par les Philippines.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnodoris subflava a un régime alimentaire de type carnivore. Il se nourrit exclusivement d'autres limaces ainsi que de leurs œufs[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnodoris subflava a un régime alimentaire de type carnivore. Il se nourrit exclusivement d'autres limaces ainsi que de leurs œufs.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baba, 1949 : Opisthobranchia of Sagami Bay: Collected by His Majesty the Emperor of Japan. Iwanami Shoten, Tokyo.</t>
         </is>
